--- a/breeding_patterns - win, sum/Dam, Sire birth season/Dam_Sire_Combinations_SM2.xlsx
+++ b/breeding_patterns - win, sum/Dam, Sire birth season/Dam_Sire_Combinations_SM2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">BirthMonth</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
   </si>
 </sst>
 </file>
@@ -443,6 +446,9 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -493,6 +499,9 @@
       <c r="P2" t="n">
         <v>27</v>
       </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -543,6 +552,9 @@
       <c r="P3" t="n">
         <v>27</v>
       </c>
+      <c r="Q3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -593,6 +605,9 @@
       <c r="P4" t="n">
         <v>52</v>
       </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -643,6 +658,9 @@
       <c r="P5" t="n">
         <v>21</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -693,6 +711,9 @@
       <c r="P6" t="n">
         <v>22</v>
       </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -743,6 +764,9 @@
       <c r="P7" t="n">
         <v>24</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -793,6 +817,9 @@
       <c r="P8" t="n">
         <v>25</v>
       </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -843,6 +870,9 @@
       <c r="P9" t="n">
         <v>22</v>
       </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -893,6 +923,9 @@
       <c r="P10" t="n">
         <v>17</v>
       </c>
+      <c r="Q10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -942,6 +975,9 @@
       </c>
       <c r="P11" t="n">
         <v>13</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -993,6 +1029,9 @@
       <c r="P12" t="n">
         <v>9</v>
       </c>
+      <c r="Q12" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1042,6 +1081,9 @@
       </c>
       <c r="P13" t="n">
         <v>9</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1107,6 +1149,9 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1157,6 +1202,9 @@
       <c r="P2" t="n">
         <v>9</v>
       </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1207,6 +1255,9 @@
       <c r="P3" t="n">
         <v>8</v>
       </c>
+      <c r="Q3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1257,6 +1308,9 @@
       <c r="P4" t="n">
         <v>6</v>
       </c>
+      <c r="Q4" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1307,6 +1361,9 @@
       <c r="P5" t="n">
         <v>4</v>
       </c>
+      <c r="Q5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1357,6 +1414,9 @@
       <c r="P6" t="n">
         <v>5</v>
       </c>
+      <c r="Q6" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1407,6 +1467,9 @@
       <c r="P7" t="n">
         <v>7</v>
       </c>
+      <c r="Q7" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1457,6 +1520,9 @@
       <c r="P8" t="n">
         <v>6</v>
       </c>
+      <c r="Q8" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1507,6 +1573,9 @@
       <c r="P9" t="n">
         <v>2</v>
       </c>
+      <c r="Q9" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1557,6 +1626,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1606,6 +1678,9 @@
       </c>
       <c r="P11" t="n">
         <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -1657,6 +1732,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1706,6 +1784,9 @@
       </c>
       <c r="P13" t="n">
         <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1768,6 +1849,9 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1815,6 +1899,9 @@
       <c r="O2" t="n">
         <v>0</v>
       </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1862,6 +1949,9 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1909,6 +1999,9 @@
       <c r="O4" t="n">
         <v>4</v>
       </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1956,6 +2049,9 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2003,6 +2099,9 @@
       <c r="O6" t="n">
         <v>4</v>
       </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2050,6 +2149,9 @@
       <c r="O7" t="n">
         <v>4</v>
       </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2097,6 +2199,9 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2144,6 +2249,9 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2191,6 +2299,9 @@
       <c r="O10" t="n">
         <v>0</v>
       </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2237,6 +2348,9 @@
       </c>
       <c r="O11" t="n">
         <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2285,6 +2399,9 @@
       <c r="O12" t="n">
         <v>0</v>
       </c>
+      <c r="P12" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2331,6 +2448,9 @@
       </c>
       <c r="O13" t="n">
         <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2387,6 +2507,9 @@
       <c r="M1" t="s">
         <v>15</v>
       </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2428,6 +2551,9 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2469,6 +2595,9 @@
       <c r="M3" t="n">
         <v>4</v>
       </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2510,6 +2639,9 @@
       <c r="M4" t="n">
         <v>0</v>
       </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2551,6 +2683,9 @@
       <c r="M5" t="n">
         <v>8</v>
       </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2592,6 +2727,9 @@
       <c r="M6" t="n">
         <v>17</v>
       </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2633,6 +2771,9 @@
       <c r="M7" t="n">
         <v>17</v>
       </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2674,6 +2815,9 @@
       <c r="M8" t="n">
         <v>15</v>
       </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2715,6 +2859,9 @@
       <c r="M9" t="n">
         <v>18</v>
       </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2756,6 +2903,9 @@
       <c r="M10" t="n">
         <v>8</v>
       </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2796,6 +2946,9 @@
       </c>
       <c r="M11" t="n">
         <v>11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2838,6 +2991,9 @@
       <c r="M12" t="n">
         <v>3</v>
       </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2878,6 +3034,9 @@
       </c>
       <c r="M13" t="n">
         <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
